--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>011815</t>
-  </si>
-  <si>
-    <t>003805</t>
-  </si>
-  <si>
-    <t>003806</t>
-  </si>
-  <si>
-    <t>001849</t>
-  </si>
-  <si>
-    <t>恒越优势精选混合型发起式证券投资基金</t>
-  </si>
-  <si>
-    <t>华安新恒利灵活配置混合A</t>
-  </si>
-  <si>
-    <t>华安新恒利灵活配置混合C</t>
-  </si>
-  <si>
-    <t>前海开源强势共识100强等权重股票</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>6.72</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>93.98</t>
-  </si>
-  <si>
-    <t>27.45</t>
-  </si>
-  <si>
-    <t>90.83</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.0580</t>
-  </si>
-  <si>
-    <t>0.0403</t>
-  </si>
-  <si>
-    <t>0.0032</t>
-  </si>
-  <si>
-    <t>0.0027</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,2089 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7960</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.49</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2587,13 +2630,1107 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3661,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3672,17 +3673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.91</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3708,14 +3751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.49</v>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3724,13 +3789,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +3960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.91</v>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +3998,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>27.49</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="5">
@@ -3949,13 +4120,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,1615 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011815</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003805</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安新恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003806</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安新恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,1127 +3943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001951</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1413</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009659</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银新动能一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>74.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6682</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰策略配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8613</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001298</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰民族新兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7992</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3861</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009660</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银新动能一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002103</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商康泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1326</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0748</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011807</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008178</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>同泰慧盈混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0449</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012297</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159845</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011808</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008179</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>同泰慧盈混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001270</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001271</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>012298</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3665,195 +3951,195 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>011815</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001270</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>0.28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3861,292 +4147,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001270</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001271</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002326-永太科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>8.91</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>27.49</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2063,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3943,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
